--- a/database/industries/darou/detmad/cost/quarterly.xlsx
+++ b/database/industries/darou/detmad/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\detmad\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA756349-8285-4044-B9B5-920EFAAE6162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE4E4DE-FAD0-47D5-A0C3-AFA17731A5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="83">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -710,16 +725,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I183"/>
+  <dimension ref="B1:N183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -728,8 +743,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -740,8 +760,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -752,8 +777,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -762,8 +792,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -774,8 +809,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -786,8 +826,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -796,8 +841,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -818,8 +868,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -828,98 +893,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>639276</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1053303</v>
+      </c>
+      <c r="G10" s="9">
+        <v>839650</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1015965</v>
+      </c>
+      <c r="I10" s="9">
+        <v>857642</v>
+      </c>
+      <c r="J10" s="9">
         <v>1078055</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>474184</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>1123337</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>1128163</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>1336874</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>59046</v>
+      </c>
+      <c r="F11" s="11">
+        <v>71905</v>
+      </c>
+      <c r="G11" s="11">
+        <v>59972</v>
+      </c>
+      <c r="H11" s="11">
+        <v>107259</v>
+      </c>
+      <c r="I11" s="11">
+        <v>74949</v>
+      </c>
+      <c r="J11" s="11">
         <v>76564</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>75858</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>187125</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>141311</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>134687</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>133180</v>
+      </c>
+      <c r="F12" s="9">
+        <v>201434</v>
+      </c>
+      <c r="G12" s="9">
+        <v>227976</v>
+      </c>
+      <c r="H12" s="9">
+        <v>223120</v>
+      </c>
+      <c r="I12" s="9">
+        <v>248876</v>
+      </c>
+      <c r="J12" s="9">
         <v>247004</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>265930</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>386347</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>364694</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>381037</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>831502</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1326642</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1127598</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1346344</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1181467</v>
+      </c>
+      <c r="J13" s="13">
         <v>1401623</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>815972</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>1696809</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>1634168</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>1852598</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -938,206 +1068,356 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>831502</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1326642</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1127598</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1346344</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1181467</v>
+      </c>
+      <c r="J15" s="13">
         <v>1401623</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>815972</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>1696809</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>1634168</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>1852598</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-112705</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-75244</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-175603</v>
+      </c>
+      <c r="H16" s="9">
+        <v>26743</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-265809</v>
+      </c>
+      <c r="J16" s="9">
         <v>-270903</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>124611</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-254168</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-140172</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-287822</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>6273</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-725</v>
+      </c>
+      <c r="G17" s="11">
+        <v>534</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>-4</v>
+      </c>
+      <c r="J17" s="11">
         <v>-332</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>321</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>-55</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>-31</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>-13</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>725070</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1250673</v>
+      </c>
+      <c r="G18" s="15">
+        <v>952529</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1373087</v>
+      </c>
+      <c r="I18" s="15">
+        <v>915654</v>
+      </c>
+      <c r="J18" s="15">
         <v>1130388</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>940904</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>1442586</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>1493965</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>1564763</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>-121464</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1119800</v>
+      </c>
+      <c r="I19" s="11">
+        <v>-491295</v>
+      </c>
+      <c r="J19" s="11">
         <v>124355</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>215039</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>579056</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>848486</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>529498</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>211516</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-108099</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-188922</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-1464924</v>
+      </c>
+      <c r="I20" s="9">
+        <v>660446</v>
+      </c>
+      <c r="J20" s="9">
         <v>-215039</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-579056</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-848486</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-529498</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-743272</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>936586</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1021110</v>
+      </c>
+      <c r="G21" s="13">
+        <v>763607</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1027963</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1084805</v>
+      </c>
+      <c r="J21" s="13">
         <v>1039704</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>1257010</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>1173156</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>1812953</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>1350989</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>-99</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>-55</v>
+      </c>
+      <c r="J22" s="9">
         <v>-95</v>
       </c>
-      <c r="F22" s="9">
+      <c r="K22" s="9">
         <v>36</v>
       </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
         <v>-139</v>
       </c>
-      <c r="I22" s="9">
+      <c r="N22" s="9">
         <v>-39</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>936586</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1021110</v>
+      </c>
+      <c r="G23" s="13">
+        <v>763508</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1027963</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1084750</v>
+      </c>
+      <c r="J23" s="13">
         <v>1039609</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>1257046</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>1173156</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>1812814</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>1350950</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1146,8 +1426,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1156,8 +1441,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1166,10 +1456,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1188,8 +1483,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1198,148 +1508,243 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>5493826</v>
+      </c>
+      <c r="F31" s="9">
+        <v>11781128</v>
+      </c>
+      <c r="G31" s="9">
+        <v>11855428</v>
+      </c>
+      <c r="H31" s="9">
+        <v>13054585</v>
+      </c>
+      <c r="I31" s="9">
+        <v>20337701</v>
+      </c>
+      <c r="J31" s="9">
         <v>14012413</v>
       </c>
-      <c r="F31" s="9">
+      <c r="K31" s="9">
         <v>13909532</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>12105461</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>13401058</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>14512263</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11">
+      <c r="E32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1997523</v>
+      </c>
+      <c r="H32" s="11">
+        <v>2290212</v>
+      </c>
+      <c r="I32" s="11">
+        <v>2597443</v>
+      </c>
+      <c r="J32" s="11">
         <v>2410613</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>1643578</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>2487278</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>2224968</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>1870335</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>26</v>
+      <c r="E33" s="9">
+        <v>1195</v>
+      </c>
+      <c r="F33" s="9">
+        <v>351195</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
+        <v>5495021</v>
+      </c>
+      <c r="F34" s="13">
+        <v>12132323</v>
+      </c>
+      <c r="G34" s="13">
+        <v>13852951</v>
+      </c>
+      <c r="H34" s="13">
+        <v>15344797</v>
+      </c>
+      <c r="I34" s="13">
+        <v>22935144</v>
+      </c>
+      <c r="J34" s="13">
         <v>16423026</v>
       </c>
-      <c r="F34" s="13">
+      <c r="K34" s="13">
         <v>15553110</v>
       </c>
-      <c r="G34" s="13">
+      <c r="L34" s="13">
         <v>14592739</v>
       </c>
-      <c r="H34" s="13">
+      <c r="M34" s="13">
         <v>15626026</v>
       </c>
-      <c r="I34" s="13">
+      <c r="N34" s="13">
         <v>16382598</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1348,8 +1753,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1358,8 +1768,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1368,10 +1783,15 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1390,8 +1810,23 @@
       <c r="I38" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1400,148 +1835,243 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
+        <v>10350383</v>
+      </c>
+      <c r="F42" s="9">
+        <v>5067307</v>
+      </c>
+      <c r="G42" s="9">
+        <v>48636614</v>
+      </c>
+      <c r="H42" s="9">
+        <v>12336599</v>
+      </c>
+      <c r="I42" s="9">
+        <v>26071489</v>
+      </c>
+      <c r="J42" s="9">
         <v>15106964</v>
       </c>
-      <c r="F42" s="9">
+      <c r="K42" s="9">
         <v>26829042</v>
       </c>
-      <c r="G42" s="9">
+      <c r="L42" s="9">
         <v>11833689</v>
       </c>
-      <c r="H42" s="9">
+      <c r="M42" s="9">
         <v>9226890</v>
       </c>
-      <c r="I42" s="9">
+      <c r="N42" s="9">
         <v>3975459</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11">
+      <c r="E43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="11">
+        <v>4638201</v>
+      </c>
+      <c r="G43" s="11">
+        <v>2191967</v>
+      </c>
+      <c r="H43" s="11">
+        <v>2634581</v>
+      </c>
+      <c r="I43" s="11">
+        <v>-99414</v>
+      </c>
+      <c r="J43" s="11">
         <v>930087</v>
       </c>
-      <c r="F43" s="11">
+      <c r="K43" s="11">
         <v>1144456</v>
       </c>
-      <c r="G43" s="11">
+      <c r="L43" s="11">
         <v>1001318</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>1074826</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>1355690</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>26</v>
+      <c r="E44" s="9">
+        <v>2044180</v>
+      </c>
+      <c r="F44" s="9">
+        <v>2169556</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
+        <v>12394563</v>
+      </c>
+      <c r="F45" s="13">
+        <v>11875064</v>
+      </c>
+      <c r="G45" s="13">
+        <v>50828581</v>
+      </c>
+      <c r="H45" s="13">
+        <v>14971180</v>
+      </c>
+      <c r="I45" s="13">
+        <v>25972075</v>
+      </c>
+      <c r="J45" s="13">
         <v>16037051</v>
       </c>
-      <c r="F45" s="13">
+      <c r="K45" s="13">
         <v>27973498</v>
       </c>
-      <c r="G45" s="13">
+      <c r="L45" s="13">
         <v>12835007</v>
       </c>
-      <c r="H45" s="13">
+      <c r="M45" s="13">
         <v>10301716</v>
       </c>
-      <c r="I45" s="13">
+      <c r="N45" s="13">
         <v>5331149</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1550,8 +2080,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1560,8 +2095,13 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1570,10 +2110,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1592,8 +2137,23 @@
       <c r="I49" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1602,148 +2162,243 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
+        <v>4063081</v>
+      </c>
+      <c r="F53" s="9">
+        <v>4993007</v>
+      </c>
+      <c r="G53" s="9">
+        <v>47437457</v>
+      </c>
+      <c r="H53" s="9">
+        <v>5053483</v>
+      </c>
+      <c r="I53" s="9">
+        <v>32396777</v>
+      </c>
+      <c r="J53" s="9">
         <v>15209845</v>
       </c>
-      <c r="F53" s="9">
+      <c r="K53" s="9">
         <v>28633113</v>
       </c>
-      <c r="G53" s="9">
+      <c r="L53" s="9">
         <v>10538092</v>
       </c>
-      <c r="H53" s="9">
+      <c r="M53" s="9">
         <v>8115685</v>
       </c>
-      <c r="I53" s="9">
+      <c r="N53" s="9">
         <v>4530821</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11">
+      <c r="E54" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="11">
+        <v>4442024</v>
+      </c>
+      <c r="G54" s="11">
+        <v>1899278</v>
+      </c>
+      <c r="H54" s="11">
+        <v>2327350</v>
+      </c>
+      <c r="I54" s="11">
+        <v>87416</v>
+      </c>
+      <c r="J54" s="11">
         <v>1697122</v>
       </c>
-      <c r="F54" s="11">
+      <c r="K54" s="11">
         <v>304765</v>
       </c>
-      <c r="G54" s="11">
+      <c r="L54" s="11">
         <v>1263628</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>1425450</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>1385462</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>26</v>
+      <c r="E55" s="9">
+        <v>1694180</v>
+      </c>
+      <c r="F55" s="9">
+        <v>2520751</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>5757261</v>
+      </c>
+      <c r="F56" s="13">
+        <v>11955782</v>
+      </c>
+      <c r="G56" s="13">
+        <v>49336735</v>
+      </c>
+      <c r="H56" s="13">
+        <v>7380833</v>
+      </c>
+      <c r="I56" s="13">
+        <v>32484193</v>
+      </c>
+      <c r="J56" s="13">
         <v>16906967</v>
       </c>
-      <c r="F56" s="13">
+      <c r="K56" s="13">
         <v>28937878</v>
       </c>
-      <c r="G56" s="13">
+      <c r="L56" s="13">
         <v>11801720</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>9541135</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>5916283</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1752,8 +2407,13 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1762,8 +2422,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1772,10 +2437,15 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1794,8 +2464,23 @@
       <c r="I60" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1804,148 +2489,243 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>26</v>
+      <c r="E62" s="9">
+        <v>671456</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>26</v>
+      <c r="E63" s="11">
+        <v>1074767</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>11781128</v>
+      </c>
+      <c r="F64" s="9">
+        <v>11855428</v>
+      </c>
+      <c r="G64" s="9">
+        <v>13054585</v>
+      </c>
+      <c r="H64" s="9">
+        <v>20337701</v>
+      </c>
+      <c r="I64" s="9">
+        <v>14012413</v>
+      </c>
+      <c r="J64" s="9">
         <v>13909532</v>
       </c>
-      <c r="F64" s="9">
+      <c r="K64" s="9">
         <v>12105461</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>13401058</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>14512263</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>13956901</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11">
+      <c r="E65" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="11">
+        <v>1997523</v>
+      </c>
+      <c r="G65" s="11">
+        <v>2290212</v>
+      </c>
+      <c r="H65" s="11">
+        <v>2597443</v>
+      </c>
+      <c r="I65" s="11">
+        <v>2410613</v>
+      </c>
+      <c r="J65" s="11">
         <v>1643578</v>
       </c>
-      <c r="F65" s="11">
+      <c r="K65" s="11">
         <v>2483269</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>2224968</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>1870335</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>1840563</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>26</v>
+      <c r="E66" s="9">
+        <v>351195</v>
+      </c>
+      <c r="F66" s="9">
+        <v>0</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
+        <v>13878546</v>
+      </c>
+      <c r="F67" s="13">
+        <v>13852951</v>
+      </c>
+      <c r="G67" s="13">
+        <v>15344797</v>
+      </c>
+      <c r="H67" s="13">
+        <v>22935144</v>
+      </c>
+      <c r="I67" s="13">
+        <v>16423026</v>
+      </c>
+      <c r="J67" s="13">
         <v>15553110</v>
       </c>
-      <c r="F67" s="13">
+      <c r="K67" s="13">
         <v>14588730</v>
       </c>
-      <c r="G67" s="13">
+      <c r="L67" s="13">
         <v>15626026</v>
       </c>
-      <c r="H67" s="13">
+      <c r="M67" s="13">
         <v>16382598</v>
       </c>
-      <c r="I67" s="13">
+      <c r="N67" s="13">
         <v>15797464</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1954,8 +2734,13 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1964,8 +2749,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1974,10 +2764,15 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1996,8 +2791,23 @@
       <c r="I71" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2006,150 +2816,245 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
-        <v>26</v>
+      <c r="E73" s="9">
+        <v>0</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
+        <v>23368</v>
+      </c>
+      <c r="F75" s="9">
+        <v>41424</v>
+      </c>
+      <c r="G75" s="9">
+        <v>47490</v>
+      </c>
+      <c r="H75" s="9">
+        <v>50742</v>
+      </c>
+      <c r="I75" s="9">
+        <v>73282</v>
+      </c>
+      <c r="J75" s="9">
         <v>78589</v>
       </c>
-      <c r="F75" s="9">
+      <c r="K75" s="9">
         <v>77694</v>
       </c>
-      <c r="G75" s="9">
+      <c r="L75" s="9">
         <v>90645</v>
       </c>
-      <c r="H75" s="9">
+      <c r="M75" s="9">
         <v>83092</v>
       </c>
-      <c r="I75" s="9">
+      <c r="N75" s="9">
         <v>101904</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="11">
+        <v>918286</v>
+      </c>
+      <c r="H76" s="11">
+        <v>1485388</v>
+      </c>
+      <c r="I76" s="11">
+        <v>1419573</v>
+      </c>
+      <c r="J76" s="11">
+        <v>1435995</v>
+      </c>
+      <c r="K76" s="11">
+        <v>1230826</v>
+      </c>
+      <c r="L76" s="11">
+        <v>1611019</v>
+      </c>
+      <c r="M76" s="11">
+        <v>1538808</v>
+      </c>
+      <c r="N76" s="11">
+        <v>1571457</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9">
         <v>30</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11">
-        <v>1435995</v>
-      </c>
-      <c r="F76" s="11">
-        <v>1230826</v>
-      </c>
-      <c r="G76" s="11">
-        <v>1611019</v>
-      </c>
-      <c r="H76" s="11">
-        <v>1538808</v>
-      </c>
-      <c r="I76" s="11">
-        <v>1571457</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>26</v>
+      <c r="F77" s="9">
+        <v>140054</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
+        <v>23398</v>
+      </c>
+      <c r="F78" s="13">
+        <v>181478</v>
+      </c>
+      <c r="G78" s="13">
+        <v>965776</v>
+      </c>
+      <c r="H78" s="13">
+        <v>1536130</v>
+      </c>
+      <c r="I78" s="13">
+        <v>1492855</v>
+      </c>
+      <c r="J78" s="13">
         <v>1514584</v>
       </c>
-      <c r="F78" s="13">
+      <c r="K78" s="13">
         <v>1308520</v>
       </c>
-      <c r="G78" s="13">
+      <c r="L78" s="13">
         <v>1701664</v>
       </c>
-      <c r="H78" s="13">
+      <c r="M78" s="13">
         <v>1621900</v>
       </c>
-      <c r="I78" s="13">
+      <c r="N78" s="13">
         <v>1673361</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2158,8 +3063,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2168,8 +3078,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2178,10 +3093,15 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2200,8 +3120,23 @@
       <c r="I82" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2210,150 +3145,245 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
-        <v>26</v>
+      <c r="E84" s="9">
+        <v>408201</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
+        <v>41830</v>
+      </c>
+      <c r="F86" s="9">
+        <v>41386</v>
+      </c>
+      <c r="G86" s="9">
+        <v>56482</v>
+      </c>
+      <c r="H86" s="9">
+        <v>45596</v>
+      </c>
+      <c r="I86" s="9">
+        <v>71939</v>
+      </c>
+      <c r="J86" s="9">
         <v>58323</v>
       </c>
-      <c r="F86" s="9">
+      <c r="K86" s="9">
         <v>89185</v>
       </c>
-      <c r="G86" s="9">
+      <c r="L86" s="9">
         <v>39572</v>
       </c>
-      <c r="H86" s="9">
+      <c r="M86" s="9">
         <v>108944</v>
       </c>
-      <c r="I86" s="9">
+      <c r="N86" s="9">
         <v>46362</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C87" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" s="11">
+        <v>2258495</v>
+      </c>
+      <c r="G87" s="11">
+        <v>1501578</v>
+      </c>
+      <c r="H87" s="11">
+        <v>927094</v>
+      </c>
+      <c r="I87" s="11">
+        <v>807432</v>
+      </c>
+      <c r="J87" s="11">
+        <v>813668</v>
+      </c>
+      <c r="K87" s="11">
+        <v>718143</v>
+      </c>
+      <c r="L87" s="11">
+        <v>1004001</v>
+      </c>
+      <c r="M87" s="11">
+        <v>1130680</v>
+      </c>
+      <c r="N87" s="11">
+        <v>1148521</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11">
-        <v>813668</v>
-      </c>
-      <c r="F87" s="11">
-        <v>718143</v>
-      </c>
-      <c r="G87" s="11">
-        <v>1004001</v>
-      </c>
-      <c r="H87" s="11">
-        <v>1130680</v>
-      </c>
-      <c r="I87" s="11">
-        <v>1148521</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B88" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="C88" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D88" s="9"/>
-      <c r="E88" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>26</v>
+      <c r="E88" s="9">
+        <v>184198</v>
+      </c>
+      <c r="F88" s="9">
+        <v>-113247</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
+        <v>634229</v>
+      </c>
+      <c r="F89" s="13">
+        <v>2186634</v>
+      </c>
+      <c r="G89" s="13">
+        <v>1558060</v>
+      </c>
+      <c r="H89" s="13">
+        <v>972690</v>
+      </c>
+      <c r="I89" s="13">
+        <v>879371</v>
+      </c>
+      <c r="J89" s="13">
         <v>871991</v>
       </c>
-      <c r="F89" s="13">
+      <c r="K89" s="13">
         <v>807328</v>
       </c>
-      <c r="G89" s="13">
+      <c r="L89" s="13">
         <v>1043573</v>
       </c>
-      <c r="H89" s="13">
+      <c r="M89" s="13">
         <v>1239624</v>
       </c>
-      <c r="I89" s="13">
+      <c r="N89" s="13">
         <v>1194883</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2362,8 +3392,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2372,8 +3407,13 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2382,10 +3422,15 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2404,8 +3449,23 @@
       <c r="I93" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2414,150 +3474,245 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="E95" s="9" t="s">
-        <v>26</v>
+      <c r="E95" s="9">
+        <v>274495</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
+        <v>23774</v>
+      </c>
+      <c r="F97" s="9">
+        <v>35320</v>
+      </c>
+      <c r="G97" s="9">
+        <v>53230</v>
+      </c>
+      <c r="H97" s="9">
+        <v>23056</v>
+      </c>
+      <c r="I97" s="9">
+        <v>66632</v>
+      </c>
+      <c r="J97" s="9">
         <v>59218</v>
       </c>
-      <c r="F97" s="9">
+      <c r="K97" s="9">
         <v>76234</v>
       </c>
-      <c r="G97" s="9">
+      <c r="L97" s="9">
         <v>47125</v>
       </c>
-      <c r="H97" s="9">
+      <c r="M97" s="9">
         <v>90132</v>
       </c>
-      <c r="I97" s="9">
+      <c r="N97" s="9">
         <v>64233</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C98" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F98" s="11">
+        <v>1890183</v>
+      </c>
+      <c r="G98" s="11">
+        <v>934475</v>
+      </c>
+      <c r="H98" s="11">
+        <v>992909</v>
+      </c>
+      <c r="I98" s="11">
+        <v>791010</v>
+      </c>
+      <c r="J98" s="11">
+        <v>1018837</v>
+      </c>
+      <c r="K98" s="11">
+        <v>397950</v>
+      </c>
+      <c r="L98" s="11">
+        <v>1076212</v>
+      </c>
+      <c r="M98" s="11">
+        <v>1038031</v>
+      </c>
+      <c r="N98" s="11">
+        <v>1272641</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11">
-        <v>1018837</v>
-      </c>
-      <c r="F98" s="11">
-        <v>397950</v>
-      </c>
-      <c r="G98" s="11">
-        <v>1076212</v>
-      </c>
-      <c r="H98" s="11">
-        <v>1038031</v>
-      </c>
-      <c r="I98" s="11">
-        <v>1272641</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B99" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="C99" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>26</v>
+      <c r="E99" s="9">
+        <v>44172</v>
+      </c>
+      <c r="F99" s="9">
+        <v>26807</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
+        <v>342441</v>
+      </c>
+      <c r="F100" s="13">
+        <v>1952310</v>
+      </c>
+      <c r="G100" s="13">
+        <v>987705</v>
+      </c>
+      <c r="H100" s="13">
+        <v>1015965</v>
+      </c>
+      <c r="I100" s="13">
+        <v>857642</v>
+      </c>
+      <c r="J100" s="13">
         <v>1078055</v>
       </c>
-      <c r="F100" s="13">
+      <c r="K100" s="13">
         <v>474184</v>
       </c>
-      <c r="G100" s="13">
+      <c r="L100" s="13">
         <v>1123337</v>
       </c>
-      <c r="H100" s="13">
+      <c r="M100" s="13">
         <v>1128163</v>
       </c>
-      <c r="I100" s="13">
+      <c r="N100" s="13">
         <v>1336874</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2566,8 +3721,13 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2576,8 +3736,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2586,10 +3751,15 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -2608,8 +3778,23 @@
       <c r="I104" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2618,150 +3803,245 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
-        <v>26</v>
+      <c r="E106" s="9">
+        <v>266491</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N106" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
-        <v>26</v>
+      <c r="E107" s="11">
+        <v>539150</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
+        <v>41424</v>
+      </c>
+      <c r="F108" s="9">
+        <v>47490</v>
+      </c>
+      <c r="G108" s="9">
+        <v>50742</v>
+      </c>
+      <c r="H108" s="9">
+        <v>73282</v>
+      </c>
+      <c r="I108" s="9">
+        <v>78589</v>
+      </c>
+      <c r="J108" s="9">
         <v>77694</v>
       </c>
-      <c r="F108" s="9">
+      <c r="K108" s="9">
         <v>90645</v>
       </c>
-      <c r="G108" s="9">
+      <c r="L108" s="9">
         <v>83092</v>
       </c>
-      <c r="H108" s="9">
+      <c r="M108" s="9">
         <v>101904</v>
       </c>
-      <c r="I108" s="9">
+      <c r="N108" s="9">
         <v>84033</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C109" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="11">
+        <v>918286</v>
+      </c>
+      <c r="G109" s="11">
+        <v>1485388</v>
+      </c>
+      <c r="H109" s="11">
+        <v>1419573</v>
+      </c>
+      <c r="I109" s="11">
+        <v>1435995</v>
+      </c>
+      <c r="J109" s="11">
+        <v>1230826</v>
+      </c>
+      <c r="K109" s="11">
+        <v>1551019</v>
+      </c>
+      <c r="L109" s="11">
+        <v>1538808</v>
+      </c>
+      <c r="M109" s="11">
+        <v>1571457</v>
+      </c>
+      <c r="N109" s="11">
+        <v>1447337</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11">
-        <v>1230826</v>
-      </c>
-      <c r="F109" s="11">
-        <v>1551019</v>
-      </c>
-      <c r="G109" s="11">
-        <v>1538808</v>
-      </c>
-      <c r="H109" s="11">
-        <v>1571457</v>
-      </c>
-      <c r="I109" s="11">
-        <v>1447337</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B110" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="C110" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D110" s="9"/>
-      <c r="E110" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>26</v>
+      <c r="E110" s="9">
+        <v>140054</v>
+      </c>
+      <c r="F110" s="9">
+        <v>0</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
+        <v>987119</v>
+      </c>
+      <c r="F111" s="13">
+        <v>965776</v>
+      </c>
+      <c r="G111" s="13">
+        <v>1536130</v>
+      </c>
+      <c r="H111" s="13">
+        <v>1492855</v>
+      </c>
+      <c r="I111" s="13">
+        <v>1514584</v>
+      </c>
+      <c r="J111" s="13">
         <v>1308520</v>
       </c>
-      <c r="F111" s="13">
+      <c r="K111" s="13">
         <v>1641664</v>
       </c>
-      <c r="G111" s="13">
+      <c r="L111" s="13">
         <v>1621900</v>
       </c>
-      <c r="H111" s="13">
+      <c r="M111" s="13">
         <v>1673361</v>
       </c>
-      <c r="I111" s="13">
+      <c r="N111" s="13">
         <v>1531370</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2770,8 +4050,13 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2780,8 +4065,13 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2790,10 +4080,15 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2812,8 +4107,23 @@
       <c r="I115" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2822,104 +4132,169 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9">
+        <v>4254</v>
+      </c>
+      <c r="F119" s="9">
+        <v>3516</v>
+      </c>
+      <c r="G119" s="9">
+        <v>4006</v>
+      </c>
+      <c r="H119" s="9">
+        <v>3887</v>
+      </c>
+      <c r="I119" s="9">
+        <v>3603</v>
+      </c>
+      <c r="J119" s="9">
         <v>5609</v>
       </c>
-      <c r="F119" s="9">
+      <c r="K119" s="9">
         <v>5586</v>
       </c>
-      <c r="G119" s="9">
+      <c r="L119" s="9">
         <v>7488</v>
       </c>
-      <c r="H119" s="9">
+      <c r="M119" s="9">
         <v>6200</v>
       </c>
-      <c r="I119" s="9">
+      <c r="N119" s="9">
         <v>7022</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D120" s="11"/>
-      <c r="E120" s="11">
+      <c r="E120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="11">
+        <v>459712</v>
+      </c>
+      <c r="H120" s="11">
+        <v>648581</v>
+      </c>
+      <c r="I120" s="11">
+        <v>546527</v>
+      </c>
+      <c r="J120" s="11">
         <v>595697</v>
       </c>
-      <c r="F120" s="11">
+      <c r="K120" s="11">
         <v>748870</v>
       </c>
-      <c r="G120" s="11">
+      <c r="L120" s="11">
         <v>647704</v>
       </c>
-      <c r="H120" s="11">
+      <c r="M120" s="11">
         <v>691609</v>
       </c>
-      <c r="I120" s="11">
+      <c r="N120" s="11">
         <v>840201</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2928,8 +4303,13 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2938,8 +4318,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2948,10 +4333,15 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -2970,8 +4360,23 @@
       <c r="I124" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N124" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2980,128 +4385,208 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N126" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J127" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K127" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L127" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M127" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9">
+        <v>4041</v>
+      </c>
+      <c r="F128" s="9">
+        <v>8167</v>
+      </c>
+      <c r="G128" s="9">
+        <v>1161</v>
+      </c>
+      <c r="H128" s="9">
+        <v>3696</v>
+      </c>
+      <c r="I128" s="9">
+        <v>2759</v>
+      </c>
+      <c r="J128" s="9">
         <v>3861</v>
       </c>
-      <c r="F128" s="9">
+      <c r="K128" s="9">
         <v>3324</v>
       </c>
-      <c r="G128" s="9">
+      <c r="L128" s="9">
         <v>3344</v>
       </c>
-      <c r="H128" s="9">
+      <c r="M128" s="9">
         <v>11807</v>
       </c>
-      <c r="I128" s="9">
+      <c r="N128" s="9">
         <v>11662</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D129" s="11"/>
-      <c r="E129" s="11">
+      <c r="E129" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F129" s="11">
+        <v>486933</v>
+      </c>
+      <c r="G129" s="11">
+        <v>685037</v>
+      </c>
+      <c r="H129" s="11">
+        <v>351894</v>
+      </c>
+      <c r="I129" s="11">
+        <v>-8121914</v>
+      </c>
+      <c r="J129" s="11">
         <v>874830</v>
       </c>
-      <c r="F129" s="11">
+      <c r="K129" s="11">
         <v>627497</v>
       </c>
-      <c r="G129" s="11">
+      <c r="L129" s="11">
         <v>1002679</v>
       </c>
-      <c r="H129" s="11">
+      <c r="M129" s="11">
         <v>1051966</v>
       </c>
-      <c r="I129" s="11">
+      <c r="N129" s="11">
         <v>847186</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D130" s="9"/>
-      <c r="E130" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>26</v>
+      <c r="E130" s="9">
+        <v>90109</v>
+      </c>
+      <c r="F130" s="9">
+        <v>-52198</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K130" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L130" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M130" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N130" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3110,8 +4595,13 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3120,8 +4610,13 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3130,10 +4625,15 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -3152,8 +4652,23 @@
       <c r="I134" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M134" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3162,128 +4677,208 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K136" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L136" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M136" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N136" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J137" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L137" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M137" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N137" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9">
+        <v>5851</v>
+      </c>
+      <c r="F138" s="9">
+        <v>7074</v>
+      </c>
+      <c r="G138" s="9">
+        <v>1122</v>
+      </c>
+      <c r="H138" s="9">
+        <v>4562</v>
+      </c>
+      <c r="I138" s="9">
+        <v>2057</v>
+      </c>
+      <c r="J138" s="9">
         <v>3893</v>
       </c>
-      <c r="F138" s="9">
+      <c r="K138" s="9">
         <v>2662</v>
       </c>
-      <c r="G138" s="9">
+      <c r="L138" s="9">
         <v>4472</v>
       </c>
-      <c r="H138" s="9">
+      <c r="M138" s="9">
         <v>11106</v>
       </c>
-      <c r="I138" s="9">
+      <c r="N138" s="9">
         <v>14177</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D139" s="11"/>
-      <c r="E139" s="11">
+      <c r="E139" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F139" s="11">
+        <v>425523</v>
+      </c>
+      <c r="G139" s="11">
+        <v>492016</v>
+      </c>
+      <c r="H139" s="11">
+        <v>426626</v>
+      </c>
+      <c r="I139" s="11">
+        <v>9048801</v>
+      </c>
+      <c r="J139" s="11">
         <v>600332</v>
       </c>
-      <c r="F139" s="11">
+      <c r="K139" s="11">
         <v>1305760</v>
       </c>
-      <c r="G139" s="11">
+      <c r="L139" s="11">
         <v>851684</v>
       </c>
-      <c r="H139" s="11">
+      <c r="M139" s="11">
         <v>728213</v>
       </c>
-      <c r="I139" s="11">
+      <c r="N139" s="11">
         <v>918568</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D140" s="9"/>
-      <c r="E140" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>26</v>
+      <c r="E140" s="9">
+        <v>26073</v>
+      </c>
+      <c r="F140" s="9">
+        <v>10635</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K140" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L140" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M140" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N140" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3292,8 +4887,13 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3302,8 +4902,13 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3312,10 +4917,15 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -3334,8 +4944,23 @@
       <c r="I144" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K144" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M144" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N144" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3344,126 +4969,206 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N146" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K147" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L147" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M147" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N147" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D148" s="9"/>
-      <c r="E148" s="9">
+      <c r="E148" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I148" s="9">
+        <v>5609</v>
+      </c>
+      <c r="J148" s="9">
         <v>5586</v>
       </c>
-      <c r="F148" s="9">
+      <c r="K148" s="9">
         <v>7488</v>
       </c>
-      <c r="G148" s="9">
+      <c r="L148" s="9">
         <v>6200</v>
       </c>
-      <c r="H148" s="9">
+      <c r="M148" s="9">
         <v>7022</v>
       </c>
-      <c r="I148" s="9">
+      <c r="N148" s="9">
         <v>6021</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C149" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C149" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D149" s="11"/>
-      <c r="E149" s="11">
+      <c r="E149" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149" s="11">
+        <v>595697</v>
+      </c>
+      <c r="J149" s="11">
         <v>748870</v>
       </c>
-      <c r="F149" s="11">
+      <c r="K149" s="11">
         <v>624588</v>
       </c>
-      <c r="G149" s="11">
+      <c r="L149" s="11">
         <v>691609</v>
       </c>
-      <c r="H149" s="11">
+      <c r="M149" s="11">
         <v>840201</v>
       </c>
-      <c r="I149" s="11">
+      <c r="N149" s="11">
         <v>786356</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N150" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3472,8 +5177,13 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3482,8 +5192,13 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3492,10 +5207,15 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -3514,8 +5234,23 @@
       <c r="I154" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J154" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L154" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M154" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N154" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3524,10 +5259,15 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -3546,10 +5286,25 @@
       <c r="I156" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="9">
+        <v>0</v>
+      </c>
+      <c r="K156" s="9">
+        <v>0</v>
+      </c>
+      <c r="L156" s="9">
+        <v>0</v>
+      </c>
+      <c r="M156" s="9">
+        <v>0</v>
+      </c>
+      <c r="N156" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -3568,10 +5323,25 @@
       <c r="I157" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J157" s="11">
+        <v>0</v>
+      </c>
+      <c r="K157" s="11">
+        <v>0</v>
+      </c>
+      <c r="L157" s="11">
+        <v>0</v>
+      </c>
+      <c r="M157" s="11">
+        <v>0</v>
+      </c>
+      <c r="N157" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -3590,10 +5360,25 @@
       <c r="I158" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J158" s="9">
+        <v>0</v>
+      </c>
+      <c r="K158" s="9">
+        <v>0</v>
+      </c>
+      <c r="L158" s="9">
+        <v>0</v>
+      </c>
+      <c r="M158" s="9">
+        <v>0</v>
+      </c>
+      <c r="N158" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -3612,98 +5397,173 @@
       <c r="I159" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="11">
+        <v>0</v>
+      </c>
+      <c r="K159" s="11">
+        <v>0</v>
+      </c>
+      <c r="L159" s="11">
+        <v>0</v>
+      </c>
+      <c r="M159" s="11">
+        <v>0</v>
+      </c>
+      <c r="N159" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9">
+        <v>30479</v>
+      </c>
+      <c r="F160" s="9">
+        <v>-24045</v>
+      </c>
+      <c r="G160" s="9">
+        <v>41227</v>
+      </c>
+      <c r="H160" s="9">
+        <v>8289</v>
+      </c>
+      <c r="I160" s="9">
+        <v>8372</v>
+      </c>
+      <c r="J160" s="9">
         <v>22978</v>
       </c>
-      <c r="F160" s="9">
+      <c r="K160" s="9">
         <v>17270</v>
       </c>
-      <c r="G160" s="9">
+      <c r="L160" s="9">
         <v>13343</v>
       </c>
-      <c r="H160" s="9">
+      <c r="M160" s="9">
         <v>22388</v>
       </c>
-      <c r="I160" s="9">
+      <c r="N160" s="9">
         <v>28927</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11">
+        <v>5292</v>
+      </c>
+      <c r="F161" s="11">
+        <v>4420</v>
+      </c>
+      <c r="G161" s="11">
+        <v>5175</v>
+      </c>
+      <c r="H161" s="11">
+        <v>3881</v>
+      </c>
+      <c r="I161" s="11">
+        <v>7027</v>
+      </c>
+      <c r="J161" s="11">
         <v>8162</v>
       </c>
-      <c r="F161" s="11">
+      <c r="K161" s="11">
         <v>21761</v>
       </c>
-      <c r="G161" s="11">
+      <c r="L161" s="11">
         <v>12445</v>
       </c>
-      <c r="H161" s="11">
+      <c r="M161" s="11">
         <v>4418</v>
       </c>
-      <c r="I161" s="11">
+      <c r="N161" s="11">
         <v>14749</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9">
+        <v>10870</v>
+      </c>
+      <c r="F162" s="9">
+        <v>19590</v>
+      </c>
+      <c r="G162" s="9">
+        <v>12794</v>
+      </c>
+      <c r="H162" s="9">
+        <v>17712</v>
+      </c>
+      <c r="I162" s="9">
+        <v>23559</v>
+      </c>
+      <c r="J162" s="9">
         <v>16025</v>
       </c>
-      <c r="F162" s="9">
+      <c r="K162" s="9">
         <v>20635</v>
       </c>
-      <c r="G162" s="9">
+      <c r="L162" s="9">
         <v>25716</v>
       </c>
-      <c r="H162" s="9">
+      <c r="M162" s="9">
         <v>31389</v>
       </c>
-      <c r="I162" s="9">
+      <c r="N162" s="9">
         <v>37531</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11">
+        <v>63924</v>
+      </c>
+      <c r="F163" s="11">
+        <v>133438</v>
+      </c>
+      <c r="G163" s="11">
+        <v>14838</v>
+      </c>
+      <c r="H163" s="11">
+        <v>164508</v>
+      </c>
+      <c r="I163" s="11">
+        <v>52188</v>
+      </c>
+      <c r="J163" s="11">
         <v>109016</v>
       </c>
-      <c r="F163" s="11">
+      <c r="K163" s="11">
         <v>83641</v>
       </c>
-      <c r="G163" s="11">
+      <c r="L163" s="11">
         <v>251777</v>
       </c>
-      <c r="H163" s="11">
+      <c r="M163" s="11">
         <v>150651</v>
       </c>
-      <c r="I163" s="11">
+      <c r="N163" s="11">
         <v>173148</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -3722,52 +5582,97 @@
       <c r="I164" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="9">
+        <v>0</v>
+      </c>
+      <c r="K164" s="9">
+        <v>0</v>
+      </c>
+      <c r="L164" s="9">
+        <v>0</v>
+      </c>
+      <c r="M164" s="9">
+        <v>0</v>
+      </c>
+      <c r="N164" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11">
+        <v>22615</v>
+      </c>
+      <c r="F165" s="11">
+        <v>68031</v>
+      </c>
+      <c r="G165" s="11">
+        <v>153942</v>
+      </c>
+      <c r="H165" s="11">
+        <v>28730</v>
+      </c>
+      <c r="I165" s="11">
+        <v>157730</v>
+      </c>
+      <c r="J165" s="11">
         <v>90823</v>
       </c>
-      <c r="F165" s="11">
+      <c r="K165" s="11">
         <v>122623</v>
       </c>
-      <c r="G165" s="11">
+      <c r="L165" s="11">
         <v>83066</v>
       </c>
-      <c r="H165" s="11">
+      <c r="M165" s="11">
         <v>155848</v>
       </c>
-      <c r="I165" s="11">
+      <c r="N165" s="11">
         <v>126682</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15">
+        <v>133180</v>
+      </c>
+      <c r="F166" s="15">
+        <v>201434</v>
+      </c>
+      <c r="G166" s="15">
+        <v>227976</v>
+      </c>
+      <c r="H166" s="15">
+        <v>223120</v>
+      </c>
+      <c r="I166" s="15">
+        <v>248876</v>
+      </c>
+      <c r="J166" s="15">
         <v>247004</v>
       </c>
-      <c r="F166" s="15">
+      <c r="K166" s="15">
         <v>265930</v>
       </c>
-      <c r="G166" s="15">
+      <c r="L166" s="15">
         <v>386347</v>
       </c>
-      <c r="H166" s="15">
+      <c r="M166" s="15">
         <v>364694</v>
       </c>
-      <c r="I166" s="15">
+      <c r="N166" s="15">
         <v>381037</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -3776,8 +5681,13 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3786,8 +5696,13 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -3796,10 +5711,15 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -3808,8 +5728,13 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -3818,13 +5743,18 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
@@ -3832,123 +5762,128 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D177" s="11"/>
       <c r="E177" s="11"/>
       <c r="F177" s="11"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D179" s="11"/>
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D183" s="11"/>
       <c r="E183" s="11"/>

--- a/database/industries/darou/detmad/cost/quarterly.xlsx
+++ b/database/industries/darou/detmad/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE4E4DE-FAD0-47D5-A0C3-AFA17731A5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD74253-B13F-4E95-82F3-8FF1449C158C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="83">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -729,12 +729,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -749,7 +749,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -798,7 +798,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -815,7 +815,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -847,7 +847,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -884,7 +884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -899,155 +899,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>639276</v>
+        <v>1053303</v>
       </c>
       <c r="F10" s="9">
-        <v>1053303</v>
+        <v>839650</v>
       </c>
       <c r="G10" s="9">
-        <v>839650</v>
+        <v>1015965</v>
       </c>
       <c r="H10" s="9">
-        <v>1015965</v>
+        <v>857642</v>
       </c>
       <c r="I10" s="9">
-        <v>857642</v>
+        <v>1078055</v>
       </c>
       <c r="J10" s="9">
-        <v>1078055</v>
+        <v>474184</v>
       </c>
       <c r="K10" s="9">
-        <v>474184</v>
+        <v>1123337</v>
       </c>
       <c r="L10" s="9">
-        <v>1123337</v>
+        <v>1128163</v>
       </c>
       <c r="M10" s="9">
-        <v>1128163</v>
+        <v>1336874</v>
       </c>
       <c r="N10" s="9">
-        <v>1336874</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1678582</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>59046</v>
+        <v>71905</v>
       </c>
       <c r="F11" s="11">
-        <v>71905</v>
+        <v>59972</v>
       </c>
       <c r="G11" s="11">
-        <v>59972</v>
+        <v>107259</v>
       </c>
       <c r="H11" s="11">
-        <v>107259</v>
+        <v>74949</v>
       </c>
       <c r="I11" s="11">
-        <v>74949</v>
+        <v>76564</v>
       </c>
       <c r="J11" s="11">
-        <v>76564</v>
+        <v>75858</v>
       </c>
       <c r="K11" s="11">
-        <v>75858</v>
+        <v>187125</v>
       </c>
       <c r="L11" s="11">
-        <v>187125</v>
+        <v>141311</v>
       </c>
       <c r="M11" s="11">
-        <v>141311</v>
+        <v>134687</v>
       </c>
       <c r="N11" s="11">
-        <v>134687</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>164815</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>133180</v>
+        <v>201434</v>
       </c>
       <c r="F12" s="9">
-        <v>201434</v>
+        <v>227976</v>
       </c>
       <c r="G12" s="9">
-        <v>227976</v>
+        <v>223120</v>
       </c>
       <c r="H12" s="9">
-        <v>223120</v>
+        <v>248876</v>
       </c>
       <c r="I12" s="9">
-        <v>248876</v>
+        <v>247004</v>
       </c>
       <c r="J12" s="9">
-        <v>247004</v>
+        <v>265930</v>
       </c>
       <c r="K12" s="9">
-        <v>265930</v>
+        <v>386347</v>
       </c>
       <c r="L12" s="9">
-        <v>386347</v>
+        <v>364694</v>
       </c>
       <c r="M12" s="9">
-        <v>364694</v>
+        <v>381037</v>
       </c>
       <c r="N12" s="9">
-        <v>381037</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>471537</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>831502</v>
+        <v>1326642</v>
       </c>
       <c r="F13" s="13">
-        <v>1326642</v>
+        <v>1127598</v>
       </c>
       <c r="G13" s="13">
-        <v>1127598</v>
+        <v>1346344</v>
       </c>
       <c r="H13" s="13">
-        <v>1346344</v>
+        <v>1181467</v>
       </c>
       <c r="I13" s="13">
-        <v>1181467</v>
+        <v>1401623</v>
       </c>
       <c r="J13" s="13">
-        <v>1401623</v>
+        <v>815972</v>
       </c>
       <c r="K13" s="13">
-        <v>815972</v>
+        <v>1696809</v>
       </c>
       <c r="L13" s="13">
-        <v>1696809</v>
+        <v>1634168</v>
       </c>
       <c r="M13" s="13">
-        <v>1634168</v>
+        <v>1852598</v>
       </c>
       <c r="N13" s="13">
-        <v>1852598</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2314934</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1084,266 +1084,266 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>831502</v>
+        <v>1326642</v>
       </c>
       <c r="F15" s="13">
-        <v>1326642</v>
+        <v>1127598</v>
       </c>
       <c r="G15" s="13">
-        <v>1127598</v>
+        <v>1346344</v>
       </c>
       <c r="H15" s="13">
-        <v>1346344</v>
+        <v>1181467</v>
       </c>
       <c r="I15" s="13">
-        <v>1181467</v>
+        <v>1401623</v>
       </c>
       <c r="J15" s="13">
-        <v>1401623</v>
+        <v>815972</v>
       </c>
       <c r="K15" s="13">
-        <v>815972</v>
+        <v>1696809</v>
       </c>
       <c r="L15" s="13">
-        <v>1696809</v>
+        <v>1634168</v>
       </c>
       <c r="M15" s="13">
-        <v>1634168</v>
+        <v>1852598</v>
       </c>
       <c r="N15" s="13">
-        <v>1852598</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2314934</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-112705</v>
+        <v>-75244</v>
       </c>
       <c r="F16" s="9">
-        <v>-75244</v>
+        <v>-175603</v>
       </c>
       <c r="G16" s="9">
-        <v>-175603</v>
+        <v>26743</v>
       </c>
       <c r="H16" s="9">
-        <v>26743</v>
+        <v>-265809</v>
       </c>
       <c r="I16" s="9">
-        <v>-265809</v>
+        <v>-270903</v>
       </c>
       <c r="J16" s="9">
-        <v>-270903</v>
+        <v>124611</v>
       </c>
       <c r="K16" s="9">
-        <v>124611</v>
+        <v>-254168</v>
       </c>
       <c r="L16" s="9">
-        <v>-254168</v>
+        <v>-140172</v>
       </c>
       <c r="M16" s="9">
-        <v>-140172</v>
+        <v>-287822</v>
       </c>
       <c r="N16" s="9">
-        <v>-287822</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>195690</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>6273</v>
+        <v>-725</v>
       </c>
       <c r="F17" s="11">
-        <v>-725</v>
+        <v>534</v>
       </c>
       <c r="G17" s="11">
-        <v>534</v>
+        <v>0</v>
       </c>
       <c r="H17" s="11">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="I17" s="11">
-        <v>-4</v>
+        <v>-332</v>
       </c>
       <c r="J17" s="11">
-        <v>-332</v>
+        <v>321</v>
       </c>
       <c r="K17" s="11">
-        <v>321</v>
+        <v>-55</v>
       </c>
       <c r="L17" s="11">
-        <v>-55</v>
+        <v>-31</v>
       </c>
       <c r="M17" s="11">
-        <v>-31</v>
+        <v>-13</v>
       </c>
       <c r="N17" s="11">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>725070</v>
+        <v>1250673</v>
       </c>
       <c r="F18" s="15">
-        <v>1250673</v>
+        <v>952529</v>
       </c>
       <c r="G18" s="15">
-        <v>952529</v>
+        <v>1373087</v>
       </c>
       <c r="H18" s="15">
-        <v>1373087</v>
+        <v>915654</v>
       </c>
       <c r="I18" s="15">
-        <v>915654</v>
+        <v>1130388</v>
       </c>
       <c r="J18" s="15">
-        <v>1130388</v>
+        <v>940904</v>
       </c>
       <c r="K18" s="15">
-        <v>940904</v>
+        <v>1442586</v>
       </c>
       <c r="L18" s="15">
-        <v>1442586</v>
+        <v>1493965</v>
       </c>
       <c r="M18" s="15">
-        <v>1493965</v>
+        <v>1564763</v>
       </c>
       <c r="N18" s="15">
-        <v>1564763</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2510565</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>-121464</v>
       </c>
       <c r="F19" s="11">
-        <v>-121464</v>
+        <v>439583</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>1119800</v>
       </c>
       <c r="H19" s="11">
-        <v>1119800</v>
+        <v>-491295</v>
       </c>
       <c r="I19" s="11">
-        <v>-491295</v>
+        <v>804478</v>
       </c>
       <c r="J19" s="11">
-        <v>124355</v>
+        <v>1019517</v>
       </c>
       <c r="K19" s="11">
-        <v>215039</v>
+        <v>579056</v>
       </c>
       <c r="L19" s="11">
-        <v>579056</v>
+        <v>848486</v>
       </c>
       <c r="M19" s="11">
-        <v>848486</v>
+        <v>529498</v>
       </c>
       <c r="N19" s="11">
-        <v>529498</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>743272</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>211516</v>
+        <v>-108099</v>
       </c>
       <c r="F20" s="9">
-        <v>-108099</v>
+        <v>-628505</v>
       </c>
       <c r="G20" s="9">
-        <v>-188922</v>
+        <v>-1464924</v>
       </c>
       <c r="H20" s="9">
-        <v>-1464924</v>
+        <v>660446</v>
       </c>
       <c r="I20" s="9">
-        <v>660446</v>
+        <v>-1019517</v>
       </c>
       <c r="J20" s="9">
-        <v>-215039</v>
+        <v>-579056</v>
       </c>
       <c r="K20" s="9">
-        <v>-579056</v>
+        <v>-848486</v>
       </c>
       <c r="L20" s="9">
-        <v>-848486</v>
+        <v>-529498</v>
       </c>
       <c r="M20" s="9">
-        <v>-529498</v>
+        <v>-743272</v>
       </c>
       <c r="N20" s="9">
-        <v>-743272</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-621873</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>936586</v>
+        <v>1021110</v>
       </c>
       <c r="F21" s="13">
-        <v>1021110</v>
+        <v>763607</v>
       </c>
       <c r="G21" s="13">
-        <v>763607</v>
+        <v>1027963</v>
       </c>
       <c r="H21" s="13">
-        <v>1027963</v>
+        <v>1084805</v>
       </c>
       <c r="I21" s="13">
-        <v>1084805</v>
+        <v>1039704</v>
       </c>
       <c r="J21" s="13">
-        <v>1039704</v>
+        <v>1257010</v>
       </c>
       <c r="K21" s="13">
-        <v>1257010</v>
+        <v>1173156</v>
       </c>
       <c r="L21" s="13">
-        <v>1173156</v>
+        <v>1812953</v>
       </c>
       <c r="M21" s="13">
-        <v>1812953</v>
+        <v>1350989</v>
       </c>
       <c r="N21" s="13">
-        <v>1350989</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2631964</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1353,71 +1353,71 @@
         <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="G22" s="9">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="H22" s="9">
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="I22" s="9">
-        <v>-55</v>
+        <v>-95</v>
       </c>
       <c r="J22" s="9">
-        <v>-95</v>
+        <v>36</v>
       </c>
       <c r="K22" s="9">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L22" s="9">
-        <v>0</v>
+        <v>-139</v>
       </c>
       <c r="M22" s="9">
-        <v>-139</v>
+        <v>-39</v>
       </c>
       <c r="N22" s="9">
-        <v>-39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>936586</v>
+        <v>1021110</v>
       </c>
       <c r="F23" s="13">
-        <v>1021110</v>
+        <v>763508</v>
       </c>
       <c r="G23" s="13">
-        <v>763508</v>
+        <v>1027963</v>
       </c>
       <c r="H23" s="13">
-        <v>1027963</v>
+        <v>1084750</v>
       </c>
       <c r="I23" s="13">
-        <v>1084750</v>
+        <v>1039609</v>
       </c>
       <c r="J23" s="13">
-        <v>1039609</v>
+        <v>1257046</v>
       </c>
       <c r="K23" s="13">
-        <v>1257046</v>
+        <v>1173156</v>
       </c>
       <c r="L23" s="13">
-        <v>1173156</v>
+        <v>1812814</v>
       </c>
       <c r="M23" s="13">
-        <v>1812814</v>
+        <v>1350950</v>
       </c>
       <c r="N23" s="13">
-        <v>1350950</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2631918</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1432,7 +1432,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1447,7 +1447,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1462,7 +1462,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1514,7 +1514,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1601,37 +1601,37 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>5493826</v>
+        <v>11781128</v>
       </c>
       <c r="F31" s="9">
-        <v>11781128</v>
+        <v>11855428</v>
       </c>
       <c r="G31" s="9">
-        <v>11855428</v>
+        <v>13054585</v>
       </c>
       <c r="H31" s="9">
-        <v>13054585</v>
+        <v>20337701</v>
       </c>
       <c r="I31" s="9">
-        <v>20337701</v>
+        <v>14012413</v>
       </c>
       <c r="J31" s="9">
-        <v>14012413</v>
+        <v>13909532</v>
       </c>
       <c r="K31" s="9">
-        <v>13909532</v>
+        <v>12105461</v>
       </c>
       <c r="L31" s="9">
-        <v>12105461</v>
+        <v>13401058</v>
       </c>
       <c r="M31" s="9">
-        <v>13401058</v>
+        <v>14512263</v>
       </c>
       <c r="N31" s="9">
-        <v>14512263</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13956901</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1642,46 +1642,46 @@
       <c r="E32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>31</v>
+      <c r="F32" s="11">
+        <v>1997523</v>
       </c>
       <c r="G32" s="11">
-        <v>1997523</v>
+        <v>2290212</v>
       </c>
       <c r="H32" s="11">
-        <v>2290212</v>
+        <v>2597443</v>
       </c>
       <c r="I32" s="11">
-        <v>2597443</v>
+        <v>2410613</v>
       </c>
       <c r="J32" s="11">
-        <v>2410613</v>
+        <v>1643578</v>
       </c>
       <c r="K32" s="11">
-        <v>1643578</v>
+        <v>2487278</v>
       </c>
       <c r="L32" s="11">
-        <v>2487278</v>
+        <v>2224968</v>
       </c>
       <c r="M32" s="11">
-        <v>2224968</v>
+        <v>1870335</v>
       </c>
       <c r="N32" s="11">
-        <v>1870335</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1840563</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>1195</v>
-      </c>
-      <c r="F33" s="9">
         <v>351195</v>
       </c>
+      <c r="F33" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G33" s="9" t="s">
         <v>31</v>
       </c>
@@ -1707,44 +1707,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>5495021</v>
+        <v>12132323</v>
       </c>
       <c r="F34" s="13">
-        <v>12132323</v>
+        <v>13852951</v>
       </c>
       <c r="G34" s="13">
-        <v>13852951</v>
+        <v>15344797</v>
       </c>
       <c r="H34" s="13">
-        <v>15344797</v>
+        <v>22935144</v>
       </c>
       <c r="I34" s="13">
-        <v>22935144</v>
+        <v>16423026</v>
       </c>
       <c r="J34" s="13">
-        <v>16423026</v>
+        <v>15553110</v>
       </c>
       <c r="K34" s="13">
-        <v>15553110</v>
+        <v>14592739</v>
       </c>
       <c r="L34" s="13">
-        <v>14592739</v>
+        <v>15626026</v>
       </c>
       <c r="M34" s="13">
-        <v>15626026</v>
+        <v>16382598</v>
       </c>
       <c r="N34" s="13">
-        <v>16382598</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15797464</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1759,7 +1759,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1774,7 +1774,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1789,7 +1789,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>37</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1841,7 +1841,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>29</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>32</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>33</v>
       </c>
@@ -1928,37 +1928,37 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
-        <v>10350383</v>
+        <v>5067307</v>
       </c>
       <c r="F42" s="9">
-        <v>5067307</v>
+        <v>48636614</v>
       </c>
       <c r="G42" s="9">
-        <v>48636614</v>
+        <v>12336599</v>
       </c>
       <c r="H42" s="9">
-        <v>12336599</v>
+        <v>26071489</v>
       </c>
       <c r="I42" s="9">
-        <v>26071489</v>
+        <v>15106964</v>
       </c>
       <c r="J42" s="9">
-        <v>15106964</v>
+        <v>26829042</v>
       </c>
       <c r="K42" s="9">
-        <v>26829042</v>
+        <v>11833689</v>
       </c>
       <c r="L42" s="9">
-        <v>11833689</v>
+        <v>9226890</v>
       </c>
       <c r="M42" s="9">
-        <v>9226890</v>
+        <v>3975459</v>
       </c>
       <c r="N42" s="9">
-        <v>3975459</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4742029</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>35</v>
       </c>
@@ -1966,49 +1966,49 @@
         <v>30</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>31</v>
+      <c r="E43" s="11">
+        <v>4638201</v>
       </c>
       <c r="F43" s="11">
-        <v>4638201</v>
+        <v>2191967</v>
       </c>
       <c r="G43" s="11">
-        <v>2191967</v>
+        <v>2634581</v>
       </c>
       <c r="H43" s="11">
-        <v>2634581</v>
+        <v>-99414</v>
       </c>
       <c r="I43" s="11">
-        <v>-99414</v>
+        <v>930087</v>
       </c>
       <c r="J43" s="11">
-        <v>930087</v>
+        <v>1144456</v>
       </c>
       <c r="K43" s="11">
-        <v>1144456</v>
+        <v>1001318</v>
       </c>
       <c r="L43" s="11">
-        <v>1001318</v>
+        <v>1074826</v>
       </c>
       <c r="M43" s="11">
-        <v>1074826</v>
+        <v>1355690</v>
       </c>
       <c r="N43" s="11">
-        <v>1355690</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1528069</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
-        <v>2044180</v>
-      </c>
-      <c r="F44" s="9">
         <v>2169556</v>
       </c>
+      <c r="F44" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G44" s="9" t="s">
         <v>31</v>
       </c>
@@ -2034,44 +2034,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>12394563</v>
+        <v>11875064</v>
       </c>
       <c r="F45" s="13">
-        <v>11875064</v>
+        <v>50828581</v>
       </c>
       <c r="G45" s="13">
-        <v>50828581</v>
+        <v>14971180</v>
       </c>
       <c r="H45" s="13">
-        <v>14971180</v>
+        <v>25972075</v>
       </c>
       <c r="I45" s="13">
-        <v>25972075</v>
+        <v>16037051</v>
       </c>
       <c r="J45" s="13">
-        <v>16037051</v>
+        <v>27973498</v>
       </c>
       <c r="K45" s="13">
-        <v>27973498</v>
+        <v>12835007</v>
       </c>
       <c r="L45" s="13">
-        <v>12835007</v>
+        <v>10301716</v>
       </c>
       <c r="M45" s="13">
-        <v>10301716</v>
+        <v>5331149</v>
       </c>
       <c r="N45" s="13">
-        <v>5331149</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6270098</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2086,7 +2086,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2101,7 +2101,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2116,7 +2116,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>38</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2168,7 +2168,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>29</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>32</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>33</v>
       </c>
@@ -2255,37 +2255,37 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>4063081</v>
+        <v>4993007</v>
       </c>
       <c r="F53" s="9">
-        <v>4993007</v>
+        <v>47437457</v>
       </c>
       <c r="G53" s="9">
-        <v>47437457</v>
+        <v>5053483</v>
       </c>
       <c r="H53" s="9">
-        <v>5053483</v>
+        <v>32396777</v>
       </c>
       <c r="I53" s="9">
-        <v>32396777</v>
+        <v>15209845</v>
       </c>
       <c r="J53" s="9">
-        <v>15209845</v>
+        <v>28633113</v>
       </c>
       <c r="K53" s="9">
-        <v>28633113</v>
+        <v>10538092</v>
       </c>
       <c r="L53" s="9">
-        <v>10538092</v>
+        <v>8115685</v>
       </c>
       <c r="M53" s="9">
-        <v>8115685</v>
+        <v>4530821</v>
       </c>
       <c r="N53" s="9">
-        <v>4530821</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5984543</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>35</v>
       </c>
@@ -2293,49 +2293,49 @@
         <v>30</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>31</v>
+      <c r="E54" s="11">
+        <v>4442024</v>
       </c>
       <c r="F54" s="11">
-        <v>4442024</v>
+        <v>1899278</v>
       </c>
       <c r="G54" s="11">
-        <v>1899278</v>
+        <v>2327350</v>
       </c>
       <c r="H54" s="11">
-        <v>2327350</v>
+        <v>87416</v>
       </c>
       <c r="I54" s="11">
-        <v>87416</v>
+        <v>1697122</v>
       </c>
       <c r="J54" s="11">
-        <v>1697122</v>
+        <v>304765</v>
       </c>
       <c r="K54" s="11">
-        <v>304765</v>
+        <v>1263628</v>
       </c>
       <c r="L54" s="11">
-        <v>1263628</v>
+        <v>1425450</v>
       </c>
       <c r="M54" s="11">
-        <v>1425450</v>
+        <v>1385462</v>
       </c>
       <c r="N54" s="11">
-        <v>1385462</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1106993</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>1694180</v>
-      </c>
-      <c r="F55" s="9">
         <v>2520751</v>
       </c>
+      <c r="F55" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G55" s="9" t="s">
         <v>31</v>
       </c>
@@ -2361,44 +2361,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>5757261</v>
+        <v>11955782</v>
       </c>
       <c r="F56" s="13">
-        <v>11955782</v>
+        <v>49336735</v>
       </c>
       <c r="G56" s="13">
-        <v>49336735</v>
+        <v>7380833</v>
       </c>
       <c r="H56" s="13">
-        <v>7380833</v>
+        <v>32484193</v>
       </c>
       <c r="I56" s="13">
-        <v>32484193</v>
+        <v>16906967</v>
       </c>
       <c r="J56" s="13">
-        <v>16906967</v>
+        <v>28937878</v>
       </c>
       <c r="K56" s="13">
-        <v>28937878</v>
+        <v>11801720</v>
       </c>
       <c r="L56" s="13">
-        <v>11801720</v>
+        <v>9541135</v>
       </c>
       <c r="M56" s="13">
-        <v>9541135</v>
+        <v>5916283</v>
       </c>
       <c r="N56" s="13">
-        <v>5916283</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7091536</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2413,7 +2413,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2428,7 +2428,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2443,7 +2443,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>39</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2495,7 +2495,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>29</v>
       </c>
@@ -2503,8 +2503,8 @@
         <v>30</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="9">
-        <v>671456</v>
+      <c r="E62" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>31</v>
@@ -2534,7 +2534,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>32</v>
       </c>
@@ -2542,8 +2542,8 @@
         <v>30</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11">
-        <v>1074767</v>
+      <c r="E63" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>31</v>
@@ -2573,7 +2573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>33</v>
       </c>
@@ -2582,37 +2582,37 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>11781128</v>
+        <v>11855428</v>
       </c>
       <c r="F64" s="9">
-        <v>11855428</v>
+        <v>13054585</v>
       </c>
       <c r="G64" s="9">
-        <v>13054585</v>
+        <v>20337701</v>
       </c>
       <c r="H64" s="9">
-        <v>20337701</v>
+        <v>14012413</v>
       </c>
       <c r="I64" s="9">
-        <v>14012413</v>
+        <v>13909532</v>
       </c>
       <c r="J64" s="9">
-        <v>13909532</v>
+        <v>12105461</v>
       </c>
       <c r="K64" s="9">
-        <v>12105461</v>
+        <v>13401058</v>
       </c>
       <c r="L64" s="9">
-        <v>13401058</v>
+        <v>14512263</v>
       </c>
       <c r="M64" s="9">
-        <v>14512263</v>
+        <v>13956901</v>
       </c>
       <c r="N64" s="9">
-        <v>13956901</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12714387</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>35</v>
       </c>
@@ -2620,48 +2620,48 @@
         <v>30</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>31</v>
+      <c r="E65" s="11">
+        <v>1997523</v>
       </c>
       <c r="F65" s="11">
-        <v>1997523</v>
+        <v>2290212</v>
       </c>
       <c r="G65" s="11">
-        <v>2290212</v>
+        <v>2597443</v>
       </c>
       <c r="H65" s="11">
-        <v>2597443</v>
+        <v>2410613</v>
       </c>
       <c r="I65" s="11">
-        <v>2410613</v>
+        <v>1643578</v>
       </c>
       <c r="J65" s="11">
-        <v>1643578</v>
+        <v>2483269</v>
       </c>
       <c r="K65" s="11">
-        <v>2483269</v>
+        <v>2224968</v>
       </c>
       <c r="L65" s="11">
-        <v>2224968</v>
+        <v>1870335</v>
       </c>
       <c r="M65" s="11">
-        <v>1870335</v>
+        <v>1840563</v>
       </c>
       <c r="N65" s="11">
-        <v>1840563</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2261639</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
-        <v>351195</v>
-      </c>
-      <c r="F66" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>31</v>
@@ -2688,44 +2688,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
-        <v>13878546</v>
+        <v>13852951</v>
       </c>
       <c r="F67" s="13">
-        <v>13852951</v>
+        <v>15344797</v>
       </c>
       <c r="G67" s="13">
-        <v>15344797</v>
+        <v>22935144</v>
       </c>
       <c r="H67" s="13">
-        <v>22935144</v>
+        <v>16423026</v>
       </c>
       <c r="I67" s="13">
-        <v>16423026</v>
+        <v>15553110</v>
       </c>
       <c r="J67" s="13">
-        <v>15553110</v>
+        <v>14588730</v>
       </c>
       <c r="K67" s="13">
-        <v>14588730</v>
+        <v>15626026</v>
       </c>
       <c r="L67" s="13">
-        <v>15626026</v>
+        <v>16382598</v>
       </c>
       <c r="M67" s="13">
-        <v>16382598</v>
+        <v>15797464</v>
       </c>
       <c r="N67" s="13">
-        <v>15797464</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14976026</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2740,7 +2740,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2755,7 +2755,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2770,7 +2770,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>40</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2822,7 +2822,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>29</v>
       </c>
@@ -2830,8 +2830,8 @@
         <v>41</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9">
-        <v>0</v>
+      <c r="E73" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>31</v>
@@ -2861,7 +2861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>32</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>33</v>
       </c>
@@ -2909,37 +2909,37 @@
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
-        <v>23368</v>
+        <v>41424</v>
       </c>
       <c r="F75" s="9">
-        <v>41424</v>
+        <v>47490</v>
       </c>
       <c r="G75" s="9">
-        <v>47490</v>
+        <v>50742</v>
       </c>
       <c r="H75" s="9">
-        <v>50742</v>
+        <v>73282</v>
       </c>
       <c r="I75" s="9">
-        <v>73282</v>
+        <v>78589</v>
       </c>
       <c r="J75" s="9">
-        <v>78589</v>
+        <v>77694</v>
       </c>
       <c r="K75" s="9">
-        <v>77694</v>
+        <v>90645</v>
       </c>
       <c r="L75" s="9">
-        <v>90645</v>
+        <v>83092</v>
       </c>
       <c r="M75" s="9">
-        <v>83092</v>
+        <v>101904</v>
       </c>
       <c r="N75" s="9">
-        <v>101904</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84033</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>35</v>
       </c>
@@ -2950,35 +2950,35 @@
       <c r="E76" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>31</v>
+      <c r="F76" s="11">
+        <v>918286</v>
       </c>
       <c r="G76" s="11">
-        <v>918286</v>
+        <v>1485388</v>
       </c>
       <c r="H76" s="11">
-        <v>1485388</v>
+        <v>1419573</v>
       </c>
       <c r="I76" s="11">
-        <v>1419573</v>
+        <v>1435995</v>
       </c>
       <c r="J76" s="11">
-        <v>1435995</v>
+        <v>1230826</v>
       </c>
       <c r="K76" s="11">
-        <v>1230826</v>
+        <v>1611019</v>
       </c>
       <c r="L76" s="11">
-        <v>1611019</v>
+        <v>1538808</v>
       </c>
       <c r="M76" s="11">
-        <v>1538808</v>
+        <v>1571457</v>
       </c>
       <c r="N76" s="11">
-        <v>1571457</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1447337</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>36</v>
       </c>
@@ -2987,11 +2987,11 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>30</v>
-      </c>
-      <c r="F77" s="9">
         <v>140054</v>
       </c>
+      <c r="F77" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G77" s="9" t="s">
         <v>31</v>
       </c>
@@ -3017,44 +3017,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>23398</v>
+        <v>181478</v>
       </c>
       <c r="F78" s="13">
-        <v>181478</v>
+        <v>965776</v>
       </c>
       <c r="G78" s="13">
-        <v>965776</v>
+        <v>1536130</v>
       </c>
       <c r="H78" s="13">
-        <v>1536130</v>
+        <v>1492855</v>
       </c>
       <c r="I78" s="13">
-        <v>1492855</v>
+        <v>1514584</v>
       </c>
       <c r="J78" s="13">
-        <v>1514584</v>
+        <v>1308520</v>
       </c>
       <c r="K78" s="13">
-        <v>1308520</v>
+        <v>1701664</v>
       </c>
       <c r="L78" s="13">
-        <v>1701664</v>
+        <v>1621900</v>
       </c>
       <c r="M78" s="13">
-        <v>1621900</v>
+        <v>1673361</v>
       </c>
       <c r="N78" s="13">
-        <v>1673361</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1531370</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3069,7 +3069,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3084,7 +3084,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3099,7 +3099,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>42</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3151,7 +3151,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>29</v>
       </c>
@@ -3159,8 +3159,8 @@
         <v>41</v>
       </c>
       <c r="D84" s="9"/>
-      <c r="E84" s="9">
-        <v>408201</v>
+      <c r="E84" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>31</v>
@@ -3190,7 +3190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>32</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>33</v>
       </c>
@@ -3238,37 +3238,37 @@
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
-        <v>41830</v>
+        <v>41386</v>
       </c>
       <c r="F86" s="9">
-        <v>41386</v>
+        <v>56482</v>
       </c>
       <c r="G86" s="9">
-        <v>56482</v>
+        <v>45596</v>
       </c>
       <c r="H86" s="9">
-        <v>45596</v>
+        <v>71939</v>
       </c>
       <c r="I86" s="9">
-        <v>71939</v>
+        <v>58323</v>
       </c>
       <c r="J86" s="9">
-        <v>58323</v>
+        <v>89185</v>
       </c>
       <c r="K86" s="9">
-        <v>89185</v>
+        <v>39572</v>
       </c>
       <c r="L86" s="9">
-        <v>39572</v>
+        <v>108944</v>
       </c>
       <c r="M86" s="9">
-        <v>108944</v>
+        <v>46362</v>
       </c>
       <c r="N86" s="9">
-        <v>46362</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>98848</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>35</v>
       </c>
@@ -3276,38 +3276,38 @@
         <v>41</v>
       </c>
       <c r="D87" s="11"/>
-      <c r="E87" s="11" t="s">
-        <v>31</v>
+      <c r="E87" s="11">
+        <v>2258495</v>
       </c>
       <c r="F87" s="11">
-        <v>2258495</v>
+        <v>1501578</v>
       </c>
       <c r="G87" s="11">
-        <v>1501578</v>
+        <v>927094</v>
       </c>
       <c r="H87" s="11">
-        <v>927094</v>
+        <v>807432</v>
       </c>
       <c r="I87" s="11">
-        <v>807432</v>
+        <v>813668</v>
       </c>
       <c r="J87" s="11">
-        <v>813668</v>
+        <v>718143</v>
       </c>
       <c r="K87" s="11">
-        <v>718143</v>
+        <v>1004001</v>
       </c>
       <c r="L87" s="11">
-        <v>1004001</v>
+        <v>1130680</v>
       </c>
       <c r="M87" s="11">
-        <v>1130680</v>
+        <v>1148521</v>
       </c>
       <c r="N87" s="11">
-        <v>1148521</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1846654</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>36</v>
       </c>
@@ -3316,11 +3316,11 @@
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
-        <v>184198</v>
-      </c>
-      <c r="F88" s="9">
         <v>-113247</v>
       </c>
+      <c r="F88" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G88" s="9" t="s">
         <v>31</v>
       </c>
@@ -3346,44 +3346,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>634229</v>
+        <v>2186634</v>
       </c>
       <c r="F89" s="13">
-        <v>2186634</v>
+        <v>1558060</v>
       </c>
       <c r="G89" s="13">
-        <v>1558060</v>
+        <v>972690</v>
       </c>
       <c r="H89" s="13">
-        <v>972690</v>
+        <v>879371</v>
       </c>
       <c r="I89" s="13">
-        <v>879371</v>
+        <v>871991</v>
       </c>
       <c r="J89" s="13">
-        <v>871991</v>
+        <v>807328</v>
       </c>
       <c r="K89" s="13">
-        <v>807328</v>
+        <v>1043573</v>
       </c>
       <c r="L89" s="13">
-        <v>1043573</v>
+        <v>1239624</v>
       </c>
       <c r="M89" s="13">
-        <v>1239624</v>
+        <v>1194883</v>
       </c>
       <c r="N89" s="13">
-        <v>1194883</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1945502</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3398,7 +3398,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3413,7 +3413,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3428,7 +3428,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>43</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3480,7 +3480,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>29</v>
       </c>
@@ -3488,8 +3488,8 @@
         <v>41</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="E95" s="9">
-        <v>274495</v>
+      <c r="E95" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>31</v>
@@ -3519,7 +3519,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>32</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>33</v>
       </c>
@@ -3567,37 +3567,37 @@
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>23774</v>
+        <v>35320</v>
       </c>
       <c r="F97" s="9">
-        <v>35320</v>
+        <v>53230</v>
       </c>
       <c r="G97" s="9">
-        <v>53230</v>
+        <v>23056</v>
       </c>
       <c r="H97" s="9">
-        <v>23056</v>
+        <v>66632</v>
       </c>
       <c r="I97" s="9">
-        <v>66632</v>
+        <v>59218</v>
       </c>
       <c r="J97" s="9">
-        <v>59218</v>
+        <v>76234</v>
       </c>
       <c r="K97" s="9">
-        <v>76234</v>
+        <v>47125</v>
       </c>
       <c r="L97" s="9">
-        <v>47125</v>
+        <v>90132</v>
       </c>
       <c r="M97" s="9">
-        <v>90132</v>
+        <v>64233</v>
       </c>
       <c r="N97" s="9">
-        <v>64233</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>98825</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>35</v>
       </c>
@@ -3605,38 +3605,38 @@
         <v>41</v>
       </c>
       <c r="D98" s="11"/>
-      <c r="E98" s="11" t="s">
-        <v>31</v>
+      <c r="E98" s="11">
+        <v>1890183</v>
       </c>
       <c r="F98" s="11">
-        <v>1890183</v>
+        <v>934475</v>
       </c>
       <c r="G98" s="11">
-        <v>934475</v>
+        <v>992909</v>
       </c>
       <c r="H98" s="11">
-        <v>992909</v>
+        <v>791010</v>
       </c>
       <c r="I98" s="11">
-        <v>791010</v>
+        <v>1018837</v>
       </c>
       <c r="J98" s="11">
-        <v>1018837</v>
+        <v>397950</v>
       </c>
       <c r="K98" s="11">
-        <v>397950</v>
+        <v>1076212</v>
       </c>
       <c r="L98" s="11">
-        <v>1076212</v>
+        <v>1038031</v>
       </c>
       <c r="M98" s="11">
-        <v>1038031</v>
+        <v>1272641</v>
       </c>
       <c r="N98" s="11">
-        <v>1272641</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1579757</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>36</v>
       </c>
@@ -3645,11 +3645,11 @@
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
-        <v>44172</v>
-      </c>
-      <c r="F99" s="9">
         <v>26807</v>
       </c>
+      <c r="F99" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G99" s="9" t="s">
         <v>31</v>
       </c>
@@ -3675,44 +3675,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>342441</v>
+        <v>1952310</v>
       </c>
       <c r="F100" s="13">
-        <v>1952310</v>
+        <v>987705</v>
       </c>
       <c r="G100" s="13">
-        <v>987705</v>
+        <v>1015965</v>
       </c>
       <c r="H100" s="13">
-        <v>1015965</v>
+        <v>857642</v>
       </c>
       <c r="I100" s="13">
-        <v>857642</v>
+        <v>1078055</v>
       </c>
       <c r="J100" s="13">
-        <v>1078055</v>
+        <v>474184</v>
       </c>
       <c r="K100" s="13">
-        <v>474184</v>
+        <v>1123337</v>
       </c>
       <c r="L100" s="13">
-        <v>1123337</v>
+        <v>1128163</v>
       </c>
       <c r="M100" s="13">
-        <v>1128163</v>
+        <v>1336874</v>
       </c>
       <c r="N100" s="13">
-        <v>1336874</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1678582</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3727,7 +3727,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3742,7 +3742,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3757,7 +3757,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>44</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3809,7 +3809,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>29</v>
       </c>
@@ -3817,8 +3817,8 @@
         <v>41</v>
       </c>
       <c r="D106" s="9"/>
-      <c r="E106" s="9">
-        <v>266491</v>
+      <c r="E106" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>31</v>
@@ -3848,7 +3848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>32</v>
       </c>
@@ -3856,8 +3856,8 @@
         <v>41</v>
       </c>
       <c r="D107" s="11"/>
-      <c r="E107" s="11">
-        <v>539150</v>
+      <c r="E107" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F107" s="11" t="s">
         <v>31</v>
@@ -3887,7 +3887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>33</v>
       </c>
@@ -3896,37 +3896,37 @@
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
-        <v>41424</v>
+        <v>47490</v>
       </c>
       <c r="F108" s="9">
-        <v>47490</v>
+        <v>50742</v>
       </c>
       <c r="G108" s="9">
-        <v>50742</v>
+        <v>73282</v>
       </c>
       <c r="H108" s="9">
-        <v>73282</v>
+        <v>78589</v>
       </c>
       <c r="I108" s="9">
-        <v>78589</v>
+        <v>77694</v>
       </c>
       <c r="J108" s="9">
-        <v>77694</v>
+        <v>90645</v>
       </c>
       <c r="K108" s="9">
-        <v>90645</v>
+        <v>83092</v>
       </c>
       <c r="L108" s="9">
-        <v>83092</v>
+        <v>101904</v>
       </c>
       <c r="M108" s="9">
-        <v>101904</v>
+        <v>84033</v>
       </c>
       <c r="N108" s="9">
-        <v>84033</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84056</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>35</v>
       </c>
@@ -3934,38 +3934,38 @@
         <v>41</v>
       </c>
       <c r="D109" s="11"/>
-      <c r="E109" s="11" t="s">
-        <v>31</v>
+      <c r="E109" s="11">
+        <v>918286</v>
       </c>
       <c r="F109" s="11">
-        <v>918286</v>
+        <v>1485388</v>
       </c>
       <c r="G109" s="11">
-        <v>1485388</v>
+        <v>1419573</v>
       </c>
       <c r="H109" s="11">
-        <v>1419573</v>
+        <v>1435995</v>
       </c>
       <c r="I109" s="11">
-        <v>1435995</v>
+        <v>1230826</v>
       </c>
       <c r="J109" s="11">
-        <v>1230826</v>
+        <v>1551019</v>
       </c>
       <c r="K109" s="11">
-        <v>1551019</v>
+        <v>1538808</v>
       </c>
       <c r="L109" s="11">
-        <v>1538808</v>
+        <v>1571457</v>
       </c>
       <c r="M109" s="11">
-        <v>1571457</v>
+        <v>1447337</v>
       </c>
       <c r="N109" s="11">
-        <v>1447337</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1714234</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>36</v>
       </c>
@@ -3974,10 +3974,10 @@
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9">
-        <v>140054</v>
-      </c>
-      <c r="F110" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>31</v>
@@ -4004,44 +4004,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
-        <v>987119</v>
+        <v>965776</v>
       </c>
       <c r="F111" s="13">
-        <v>965776</v>
+        <v>1536130</v>
       </c>
       <c r="G111" s="13">
-        <v>1536130</v>
+        <v>1492855</v>
       </c>
       <c r="H111" s="13">
-        <v>1492855</v>
+        <v>1514584</v>
       </c>
       <c r="I111" s="13">
-        <v>1514584</v>
+        <v>1308520</v>
       </c>
       <c r="J111" s="13">
-        <v>1308520</v>
+        <v>1641664</v>
       </c>
       <c r="K111" s="13">
-        <v>1641664</v>
+        <v>1621900</v>
       </c>
       <c r="L111" s="13">
-        <v>1621900</v>
+        <v>1673361</v>
       </c>
       <c r="M111" s="13">
-        <v>1673361</v>
+        <v>1531370</v>
       </c>
       <c r="N111" s="13">
-        <v>1531370</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1798290</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4056,7 +4056,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4071,7 +4071,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4086,7 +4086,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>45</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4138,7 +4138,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>29</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>32</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>33</v>
       </c>
@@ -4225,37 +4225,37 @@
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9">
-        <v>4254</v>
+        <v>3516</v>
       </c>
       <c r="F119" s="9">
-        <v>3516</v>
+        <v>4006</v>
       </c>
       <c r="G119" s="9">
-        <v>4006</v>
+        <v>3887</v>
       </c>
       <c r="H119" s="9">
-        <v>3887</v>
+        <v>3603</v>
       </c>
       <c r="I119" s="9">
-        <v>3603</v>
+        <v>5609</v>
       </c>
       <c r="J119" s="9">
-        <v>5609</v>
+        <v>5586</v>
       </c>
       <c r="K119" s="9">
-        <v>5586</v>
+        <v>7488</v>
       </c>
       <c r="L119" s="9">
-        <v>7488</v>
+        <v>6200</v>
       </c>
       <c r="M119" s="9">
-        <v>6200</v>
+        <v>7022</v>
       </c>
       <c r="N119" s="9">
-        <v>7022</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6021</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>35</v>
       </c>
@@ -4266,35 +4266,35 @@
       <c r="E120" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F120" s="11" t="s">
-        <v>31</v>
+      <c r="F120" s="11">
+        <v>459712</v>
       </c>
       <c r="G120" s="11">
-        <v>459712</v>
+        <v>648581</v>
       </c>
       <c r="H120" s="11">
-        <v>648581</v>
+        <v>546527</v>
       </c>
       <c r="I120" s="11">
-        <v>546527</v>
+        <v>595697</v>
       </c>
       <c r="J120" s="11">
-        <v>595697</v>
+        <v>748870</v>
       </c>
       <c r="K120" s="11">
-        <v>748870</v>
+        <v>647704</v>
       </c>
       <c r="L120" s="11">
-        <v>647704</v>
+        <v>691609</v>
       </c>
       <c r="M120" s="11">
-        <v>691609</v>
+        <v>840201</v>
       </c>
       <c r="N120" s="11">
-        <v>840201</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>786356</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4309,7 +4309,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4324,7 +4324,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4339,7 +4339,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
         <v>48</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4391,7 +4391,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>29</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>32</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>33</v>
       </c>
@@ -4478,37 +4478,37 @@
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9">
-        <v>4041</v>
+        <v>8167</v>
       </c>
       <c r="F128" s="9">
-        <v>8167</v>
+        <v>1161</v>
       </c>
       <c r="G128" s="9">
-        <v>1161</v>
+        <v>3696</v>
       </c>
       <c r="H128" s="9">
-        <v>3696</v>
+        <v>2759</v>
       </c>
       <c r="I128" s="9">
-        <v>2759</v>
+        <v>3861</v>
       </c>
       <c r="J128" s="9">
-        <v>3861</v>
+        <v>3324</v>
       </c>
       <c r="K128" s="9">
-        <v>3324</v>
+        <v>3344</v>
       </c>
       <c r="L128" s="9">
-        <v>3344</v>
+        <v>11807</v>
       </c>
       <c r="M128" s="9">
-        <v>11807</v>
+        <v>11662</v>
       </c>
       <c r="N128" s="9">
-        <v>11662</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20845</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>35</v>
       </c>
@@ -4516,38 +4516,38 @@
         <v>46</v>
       </c>
       <c r="D129" s="11"/>
-      <c r="E129" s="11" t="s">
-        <v>31</v>
+      <c r="E129" s="11">
+        <v>486933</v>
       </c>
       <c r="F129" s="11">
-        <v>486933</v>
+        <v>685037</v>
       </c>
       <c r="G129" s="11">
-        <v>685037</v>
+        <v>351894</v>
       </c>
       <c r="H129" s="11">
-        <v>351894</v>
+        <v>-8121914</v>
       </c>
       <c r="I129" s="11">
-        <v>-8121914</v>
+        <v>874830</v>
       </c>
       <c r="J129" s="11">
-        <v>874830</v>
+        <v>627497</v>
       </c>
       <c r="K129" s="11">
-        <v>627497</v>
+        <v>1002679</v>
       </c>
       <c r="L129" s="11">
-        <v>1002679</v>
+        <v>1051966</v>
       </c>
       <c r="M129" s="11">
-        <v>1051966</v>
+        <v>847186</v>
       </c>
       <c r="N129" s="11">
-        <v>847186</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1208489</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>36</v>
       </c>
@@ -4556,11 +4556,11 @@
       </c>
       <c r="D130" s="9"/>
       <c r="E130" s="9">
-        <v>90109</v>
-      </c>
-      <c r="F130" s="9">
         <v>-52198</v>
       </c>
+      <c r="F130" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G130" s="9" t="s">
         <v>31</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4601,7 +4601,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4616,7 +4616,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4631,7 +4631,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
         <v>50</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4683,7 +4683,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>29</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>32</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>33</v>
       </c>
@@ -4770,37 +4770,37 @@
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9">
-        <v>5851</v>
+        <v>7074</v>
       </c>
       <c r="F138" s="9">
-        <v>7074</v>
+        <v>1122</v>
       </c>
       <c r="G138" s="9">
-        <v>1122</v>
+        <v>4562</v>
       </c>
       <c r="H138" s="9">
-        <v>4562</v>
+        <v>2057</v>
       </c>
       <c r="I138" s="9">
-        <v>2057</v>
+        <v>3893</v>
       </c>
       <c r="J138" s="9">
-        <v>3893</v>
+        <v>2662</v>
       </c>
       <c r="K138" s="9">
-        <v>2662</v>
+        <v>4472</v>
       </c>
       <c r="L138" s="9">
-        <v>4472</v>
+        <v>11106</v>
       </c>
       <c r="M138" s="9">
-        <v>11106</v>
+        <v>14177</v>
       </c>
       <c r="N138" s="9">
-        <v>14177</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16513</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>35</v>
       </c>
@@ -4808,38 +4808,38 @@
         <v>46</v>
       </c>
       <c r="D139" s="11"/>
-      <c r="E139" s="11" t="s">
-        <v>31</v>
+      <c r="E139" s="11">
+        <v>425523</v>
       </c>
       <c r="F139" s="11">
-        <v>425523</v>
+        <v>492016</v>
       </c>
       <c r="G139" s="11">
-        <v>492016</v>
+        <v>426626</v>
       </c>
       <c r="H139" s="11">
-        <v>426626</v>
+        <v>9048801</v>
       </c>
       <c r="I139" s="11">
-        <v>9048801</v>
+        <v>600332</v>
       </c>
       <c r="J139" s="11">
-        <v>600332</v>
+        <v>1305760</v>
       </c>
       <c r="K139" s="11">
-        <v>1305760</v>
+        <v>851684</v>
       </c>
       <c r="L139" s="11">
-        <v>851684</v>
+        <v>728213</v>
       </c>
       <c r="M139" s="11">
-        <v>728213</v>
+        <v>918568</v>
       </c>
       <c r="N139" s="11">
-        <v>918568</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1427070</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>36</v>
       </c>
@@ -4848,11 +4848,11 @@
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9">
-        <v>26073</v>
-      </c>
-      <c r="F140" s="9">
         <v>10635</v>
       </c>
+      <c r="F140" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G140" s="9" t="s">
         <v>31</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4893,7 +4893,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4908,7 +4908,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4923,7 +4923,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
         <v>51</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4975,7 +4975,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>29</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>32</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>33</v>
       </c>
@@ -5070,29 +5070,29 @@
       <c r="G148" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H148" s="9" t="s">
-        <v>31</v>
+      <c r="H148" s="9">
+        <v>5609</v>
       </c>
       <c r="I148" s="9">
-        <v>5609</v>
+        <v>5586</v>
       </c>
       <c r="J148" s="9">
-        <v>5586</v>
+        <v>7488</v>
       </c>
       <c r="K148" s="9">
-        <v>7488</v>
+        <v>6200</v>
       </c>
       <c r="L148" s="9">
-        <v>6200</v>
+        <v>7022</v>
       </c>
       <c r="M148" s="9">
-        <v>7022</v>
+        <v>6021</v>
       </c>
       <c r="N148" s="9">
-        <v>6021</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6611</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>35</v>
       </c>
@@ -5109,29 +5109,29 @@
       <c r="G149" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H149" s="11" t="s">
-        <v>31</v>
+      <c r="H149" s="11">
+        <v>595697</v>
       </c>
       <c r="I149" s="11">
-        <v>595697</v>
+        <v>748870</v>
       </c>
       <c r="J149" s="11">
-        <v>748870</v>
+        <v>624588</v>
       </c>
       <c r="K149" s="11">
-        <v>624588</v>
+        <v>691609</v>
       </c>
       <c r="L149" s="11">
-        <v>691609</v>
+        <v>840201</v>
       </c>
       <c r="M149" s="11">
-        <v>840201</v>
+        <v>786356</v>
       </c>
       <c r="N149" s="11">
-        <v>786356</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+        <v>757961</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>36</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5183,7 +5183,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5198,7 +5198,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5213,7 +5213,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B154" s="7" t="s">
         <v>52</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -5265,7 +5265,7 @@
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>53</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>54</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>55</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>56</v>
       </c>
@@ -5413,155 +5413,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9">
-        <v>30479</v>
+        <v>-24045</v>
       </c>
       <c r="F160" s="9">
-        <v>-24045</v>
+        <v>41227</v>
       </c>
       <c r="G160" s="9">
-        <v>41227</v>
+        <v>8289</v>
       </c>
       <c r="H160" s="9">
-        <v>8289</v>
+        <v>8372</v>
       </c>
       <c r="I160" s="9">
-        <v>8372</v>
+        <v>22978</v>
       </c>
       <c r="J160" s="9">
-        <v>22978</v>
+        <v>17270</v>
       </c>
       <c r="K160" s="9">
-        <v>17270</v>
+        <v>13343</v>
       </c>
       <c r="L160" s="9">
-        <v>13343</v>
+        <v>22388</v>
       </c>
       <c r="M160" s="9">
-        <v>22388</v>
+        <v>28927</v>
       </c>
       <c r="N160" s="9">
-        <v>28927</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4564</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11">
-        <v>5292</v>
+        <v>4420</v>
       </c>
       <c r="F161" s="11">
-        <v>4420</v>
+        <v>5175</v>
       </c>
       <c r="G161" s="11">
-        <v>5175</v>
+        <v>3881</v>
       </c>
       <c r="H161" s="11">
-        <v>3881</v>
+        <v>7027</v>
       </c>
       <c r="I161" s="11">
-        <v>7027</v>
+        <v>8162</v>
       </c>
       <c r="J161" s="11">
-        <v>8162</v>
+        <v>21761</v>
       </c>
       <c r="K161" s="11">
-        <v>21761</v>
+        <v>12445</v>
       </c>
       <c r="L161" s="11">
-        <v>12445</v>
+        <v>4418</v>
       </c>
       <c r="M161" s="11">
-        <v>4418</v>
+        <v>14749</v>
       </c>
       <c r="N161" s="11">
-        <v>14749</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21938</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9">
-        <v>10870</v>
+        <v>19590</v>
       </c>
       <c r="F162" s="9">
-        <v>19590</v>
+        <v>12794</v>
       </c>
       <c r="G162" s="9">
-        <v>12794</v>
+        <v>17712</v>
       </c>
       <c r="H162" s="9">
-        <v>17712</v>
+        <v>23559</v>
       </c>
       <c r="I162" s="9">
-        <v>23559</v>
+        <v>16025</v>
       </c>
       <c r="J162" s="9">
-        <v>16025</v>
+        <v>20635</v>
       </c>
       <c r="K162" s="9">
-        <v>20635</v>
+        <v>25716</v>
       </c>
       <c r="L162" s="9">
-        <v>25716</v>
+        <v>31389</v>
       </c>
       <c r="M162" s="9">
-        <v>31389</v>
+        <v>37531</v>
       </c>
       <c r="N162" s="9">
-        <v>37531</v>
-      </c>
-    </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-33962</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11">
-        <v>63924</v>
+        <v>133438</v>
       </c>
       <c r="F163" s="11">
-        <v>133438</v>
+        <v>14838</v>
       </c>
       <c r="G163" s="11">
-        <v>14838</v>
+        <v>164508</v>
       </c>
       <c r="H163" s="11">
-        <v>164508</v>
+        <v>52188</v>
       </c>
       <c r="I163" s="11">
-        <v>52188</v>
+        <v>109016</v>
       </c>
       <c r="J163" s="11">
-        <v>109016</v>
+        <v>83641</v>
       </c>
       <c r="K163" s="11">
-        <v>83641</v>
+        <v>251777</v>
       </c>
       <c r="L163" s="11">
-        <v>251777</v>
+        <v>150651</v>
       </c>
       <c r="M163" s="11">
-        <v>150651</v>
+        <v>173148</v>
       </c>
       <c r="N163" s="11">
-        <v>173148</v>
-      </c>
-    </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+        <v>209137</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="8" t="s">
         <v>61</v>
       </c>
@@ -5598,81 +5598,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11">
-        <v>22615</v>
+        <v>68031</v>
       </c>
       <c r="F165" s="11">
-        <v>68031</v>
+        <v>153942</v>
       </c>
       <c r="G165" s="11">
-        <v>153942</v>
+        <v>28730</v>
       </c>
       <c r="H165" s="11">
-        <v>28730</v>
+        <v>157730</v>
       </c>
       <c r="I165" s="11">
-        <v>157730</v>
+        <v>90823</v>
       </c>
       <c r="J165" s="11">
-        <v>90823</v>
+        <v>122623</v>
       </c>
       <c r="K165" s="11">
-        <v>122623</v>
+        <v>83066</v>
       </c>
       <c r="L165" s="11">
-        <v>83066</v>
+        <v>155848</v>
       </c>
       <c r="M165" s="11">
-        <v>155848</v>
+        <v>126682</v>
       </c>
       <c r="N165" s="11">
-        <v>126682</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>278988</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15">
-        <v>133180</v>
+        <v>201434</v>
       </c>
       <c r="F166" s="15">
-        <v>201434</v>
+        <v>227976</v>
       </c>
       <c r="G166" s="15">
-        <v>227976</v>
+        <v>223120</v>
       </c>
       <c r="H166" s="15">
-        <v>223120</v>
+        <v>248876</v>
       </c>
       <c r="I166" s="15">
-        <v>248876</v>
+        <v>247004</v>
       </c>
       <c r="J166" s="15">
-        <v>247004</v>
+        <v>265930</v>
       </c>
       <c r="K166" s="15">
-        <v>265930</v>
+        <v>386347</v>
       </c>
       <c r="L166" s="15">
-        <v>386347</v>
+        <v>364694</v>
       </c>
       <c r="M166" s="15">
-        <v>364694</v>
+        <v>381037</v>
       </c>
       <c r="N166" s="15">
-        <v>381037</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+        <v>471537</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -5687,7 +5687,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5702,7 +5702,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -5717,7 +5717,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B170" s="7" t="s">
         <v>63</v>
       </c>
@@ -5734,7 +5734,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -5749,7 +5749,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>64</v>
       </c>
@@ -5768,7 +5768,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>66</v>
       </c>
@@ -5779,7 +5779,7 @@
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="8" t="s">
         <v>68</v>
       </c>
@@ -5790,7 +5790,7 @@
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="10" t="s">
         <v>70</v>
       </c>
@@ -5801,7 +5801,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="8" t="s">
         <v>71</v>
       </c>
@@ -5812,7 +5812,7 @@
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="10" t="s">
         <v>73</v>
       </c>
@@ -5823,7 +5823,7 @@
       <c r="E177" s="11"/>
       <c r="F177" s="11"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="8" t="s">
         <v>75</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>77</v>
       </c>
@@ -5845,7 +5845,7 @@
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
         <v>78</v>
       </c>
@@ -5856,7 +5856,7 @@
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>80</v>
       </c>
@@ -5867,7 +5867,7 @@
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="8" t="s">
         <v>77</v>
       </c>
@@ -5878,7 +5878,7 @@
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="s">
         <v>81</v>
       </c>
